--- a/src/Chapter-6/案例03 对多个工作簿中的工作表分别进行分类汇总/销售表/2月.xlsx
+++ b/src/Chapter-6/案例03 对多个工作簿中的工作表分别进行分类汇总/销售表/2月.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\example\05\批量分类汇总工作簿\销售表 - 副本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGF\Documents\GitHub\TianXiaPy\PyExcel\src\Chapter-6\案例03 对多个工作簿中的工作表分别进行分类汇总\销售表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D405FA7-9955-4238-8277-D5DE531A112B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4EEAD0-E63E-42FC-8388-DC89576D1BD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="6810" xr2:uid="{4037D46E-58EE-4FB2-9F7F-9C459473C1A4}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{4037D46E-58EE-4FB2-9F7F-9C459473C1A4}"/>
   </bookViews>
   <sheets>
     <sheet name="销售记录表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>订单编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -263,6 +263,66 @@
   </si>
   <si>
     <t>2019/2/31</t>
+  </si>
+  <si>
+    <t>销售区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售利润</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1161,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF0748E-2564-47C2-AC02-6C4D57B917C9}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1180,7 +1240,7 @@
     <col min="9" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,8 +1265,14 @@
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1233,8 +1299,14 @@
         <f>F2-G2</f>
         <v>19596</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="6">
+        <v>11720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1261,8 +1333,14 @@
         <f t="shared" ref="H3:H49" si="1">F3-G3</f>
         <v>44900</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="6">
+        <v>5756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1367,14 @@
         <f t="shared" si="1"/>
         <v>19160</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="6">
+        <v>291002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1317,8 +1401,14 @@
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="6">
+        <v>22968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1345,8 +1435,14 @@
         <f t="shared" si="1"/>
         <v>606</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1373,8 +1469,14 @@
         <f t="shared" si="1"/>
         <v>385</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="6">
+        <v>24973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1401,8 +1503,14 @@
         <f t="shared" si="1"/>
         <v>1124</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="6">
+        <v>25770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -1429,8 +1537,14 @@
         <f t="shared" si="1"/>
         <v>4025</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="6">
+        <v>520288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1457,8 +1571,14 @@
         <f t="shared" si="1"/>
         <v>240498</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="6">
+        <v>35516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1485,8 +1605,14 @@
         <f t="shared" si="1"/>
         <v>483200</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -1513,8 +1639,14 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="6">
+        <v>37635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1541,8 +1673,14 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="6">
+        <v>9672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1569,8 +1707,14 @@
         <f t="shared" si="1"/>
         <v>784</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="6">
+        <v>6446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
@@ -1598,7 +1742,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
